--- a/黑名单.xlsx
+++ b/黑名单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>大名城</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,6 +150,38 @@
   </si>
   <si>
     <t>主力明天已在高位出货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恺英网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002517</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前期涨多个连续涨停，被爆炒过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾信股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300392</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P/B 》 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从16年4月，频繁大宗交易。10月13更是1.1亿的大宗交易，随即股价向下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司董事长行贿被抓，14日天量成交量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -818,10 +850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F223"/>
+  <dimension ref="A1:F229"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="F223" sqref="F223"/>
+      <selection activeCell="F229" sqref="F229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1665,6 +1697,62 @@
       </c>
       <c r="F223" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A225" s="2">
+        <v>11</v>
+      </c>
+      <c r="B225" t="s">
+        <v>30</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D225" s="1">
+        <v>42662</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A227" s="2">
+        <v>12</v>
+      </c>
+      <c r="B227" t="s">
+        <v>33</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D227" s="1">
+        <v>42662</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E228">
+        <v>2</v>
+      </c>
+      <c r="F228" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E229">
+        <v>3</v>
+      </c>
+      <c r="F229" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/黑名单.xlsx
+++ b/黑名单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>大名城</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,6 +182,18 @@
   </si>
   <si>
     <t>公司董事长行贿被抓，14日天量成交量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰禾集团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000732</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房地产行业，受限购影响，暂不考虑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -850,10 +862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F229"/>
+  <dimension ref="A1:F231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="F229" sqref="F229"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="A231" sqref="A231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1753,6 +1765,26 @@
       </c>
       <c r="F229" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A231" s="2">
+        <v>13</v>
+      </c>
+      <c r="B231" t="s">
+        <v>38</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D231" s="1">
+        <v>42665</v>
+      </c>
+      <c r="E231">
+        <v>1</v>
+      </c>
+      <c r="F231" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/黑名单.xlsx
+++ b/黑名单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="27795" windowHeight="13170" tabRatio="505"/>
+    <workbookView xWindow="480" yWindow="210" windowWidth="27795" windowHeight="13110" tabRatio="505"/>
   </bookViews>
   <sheets>
     <sheet name="黑名单" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>大名城</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -194,6 +194,46 @@
   </si>
   <si>
     <t>房地产行业，受限购影响，暂不考虑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美丽生态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾经经过爆炒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>几次明天的放量均出现在阶段高点，判断为出货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>据最近一次明显出货时间太短</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三泰控股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股东人数从16年3月31到现在从5.72万变为10.9 万，不看好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今年几十起几百万股，上千万股的大宗交易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16年11月7日，解禁股，占流通股27.5%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -862,10 +902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F231"/>
+  <dimension ref="A1:F239"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="A231" sqref="A231"/>
+      <selection activeCell="F239" sqref="F239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1785,6 +1825,78 @@
       </c>
       <c r="F231" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A233" s="2">
+        <v>14</v>
+      </c>
+      <c r="B233" t="s">
+        <v>41</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D233" s="1">
+        <v>42669</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
+      </c>
+      <c r="F233" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E234">
+        <v>2</v>
+      </c>
+      <c r="F234" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E235">
+        <v>3</v>
+      </c>
+      <c r="F235" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A237" s="2">
+        <v>15</v>
+      </c>
+      <c r="B237" t="s">
+        <v>46</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D237" s="1">
+        <v>42669</v>
+      </c>
+      <c r="E237">
+        <v>1</v>
+      </c>
+      <c r="F237" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E238">
+        <v>2</v>
+      </c>
+      <c r="F238" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E239">
+        <v>3</v>
+      </c>
+      <c r="F239" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/黑名单.xlsx
+++ b/黑名单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>大名城</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -234,6 +234,26 @@
   </si>
   <si>
     <t>16年11月7日，解禁股，占流通股27.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国卫星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600118</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB&gt;9, 每股盈利为负</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主营为卫星制造，听起来很牛，但是毛利率只有15%的样子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股东人数从15年3月到现在基本增长了一倍，刚好对应股价下跌的趋势</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -902,10 +922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F239"/>
+  <dimension ref="A1:F243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="F239" sqref="F239"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="F243" sqref="F243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1897,6 +1917,42 @@
       </c>
       <c r="F239" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A241" s="2">
+        <v>16</v>
+      </c>
+      <c r="B241" t="s">
+        <v>51</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D241" s="1">
+        <v>42670</v>
+      </c>
+      <c r="E241">
+        <v>1</v>
+      </c>
+      <c r="F241" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E242">
+        <v>2</v>
+      </c>
+      <c r="F242" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E243">
+        <v>3</v>
+      </c>
+      <c r="F243" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/黑名单.xlsx
+++ b/黑名单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="210" windowWidth="27795" windowHeight="13110" tabRatio="505"/>
+    <workbookView xWindow="480" yWindow="270" windowWidth="27795" windowHeight="13050" tabRatio="505"/>
   </bookViews>
   <sheets>
     <sheet name="黑名单" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>大名城</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -254,6 +254,22 @@
   </si>
   <si>
     <t>股东人数从15年3月到现在基本增长了一倍，刚好对应股价下跌的趋势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国电南瑞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600406</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/30/2016 解禁2.23亿股，占总股本9.19%，流通股10.12%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾用名： 国电南瑞-&gt;S南瑞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -308,7 +324,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -332,6 +348,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -358,7 +377,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>331887</xdr:colOff>
+      <xdr:colOff>131862</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>123500</xdr:rowOff>
     </xdr:to>
@@ -396,7 +415,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>389032</xdr:colOff>
+      <xdr:colOff>189007</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>66242</xdr:rowOff>
     </xdr:to>
@@ -434,7 +453,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>454916</xdr:colOff>
+      <xdr:colOff>254891</xdr:colOff>
       <xdr:row>101</xdr:row>
       <xdr:rowOff>84440</xdr:rowOff>
     </xdr:to>
@@ -472,7 +491,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:colOff>476250</xdr:colOff>
       <xdr:row>141</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -527,7 +546,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>255687</xdr:colOff>
+      <xdr:colOff>55662</xdr:colOff>
       <xdr:row>161</xdr:row>
       <xdr:rowOff>94895</xdr:rowOff>
     </xdr:to>
@@ -564,8 +583,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>46762</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>532537</xdr:colOff>
       <xdr:row>198</xdr:row>
       <xdr:rowOff>170700</xdr:rowOff>
     </xdr:to>
@@ -922,10 +941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F243"/>
+  <dimension ref="A1:I246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="F243" sqref="F243"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="G217" sqref="G217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -933,6 +952,7 @@
     <col min="1" max="1" width="9" style="2"/>
     <col min="3" max="3" width="9" style="3"/>
     <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
@@ -1919,7 +1939,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A241" s="2">
         <v>16</v>
       </c>
@@ -1939,7 +1959,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.15">
       <c r="E242">
         <v>2</v>
       </c>
@@ -1947,13 +1967,43 @@
         <v>54</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.15">
       <c r="E243">
         <v>3</v>
       </c>
       <c r="F243" t="s">
         <v>55</v>
       </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A245" s="2">
+        <v>17</v>
+      </c>
+      <c r="B245" t="s">
+        <v>56</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D245" s="1">
+        <v>42674</v>
+      </c>
+      <c r="E245">
+        <v>1</v>
+      </c>
+      <c r="F245" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E246">
+        <v>2</v>
+      </c>
+      <c r="F246" t="s">
+        <v>58</v>
+      </c>
+      <c r="H246" s="8"/>
+      <c r="I246" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/黑名单.xlsx
+++ b/黑名单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="270" windowWidth="27795" windowHeight="13050" tabRatio="505"/>
+    <workbookView xWindow="480" yWindow="330" windowWidth="27795" windowHeight="12990" tabRatio="505"/>
   </bookViews>
   <sheets>
     <sheet name="黑名单" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>大名城</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -270,6 +270,54 @@
   </si>
   <si>
     <t>曾用名： 国电南瑞-&gt;S南瑞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中源协和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600645</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾用名：望春花-&gt;*ST春花-&gt;S*ST春花-&gt;*ST春花-&gt;ST望春花-&gt;ST协和-&gt;ST中源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE = 3000， PB=7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美亚光电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002690</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pe = 48， PB=7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月26， 用自有资金购买理财产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温氏股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300498</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月31日发布公告，11月2日305894.35万股解禁，占公司总股本的70.3157%；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月2日当天大宗交易120万股左右</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -337,6 +385,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -348,9 +399,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -941,10 +989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I246"/>
+  <dimension ref="A1:I255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="G217" sqref="G217"/>
+    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="F255" sqref="F255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -970,86 +1018,86 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
@@ -1066,106 +1114,106 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
@@ -1182,116 +1230,116 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" s="2">
@@ -1308,186 +1356,186 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B106" s="7" t="s">
+      <c r="B106" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B107" s="7"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
+      <c r="B107" s="8"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B108" s="7"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B109" s="7"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B110" s="7"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B111" s="7"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B112" s="7"/>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B113" s="7"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B114" s="7"/>
-      <c r="C114" s="7"/>
-      <c r="D114" s="7"/>
+      <c r="B114" s="8"/>
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B115" s="7"/>
-      <c r="C115" s="7"/>
-      <c r="D115" s="7"/>
+      <c r="B115" s="8"/>
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B116" s="7"/>
-      <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
+      <c r="B116" s="8"/>
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B117" s="7"/>
-      <c r="C117" s="7"/>
-      <c r="D117" s="7"/>
+      <c r="B117" s="8"/>
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B118" s="7"/>
-      <c r="C118" s="7"/>
-      <c r="D118" s="7"/>
+      <c r="B118" s="8"/>
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B119" s="7"/>
-      <c r="C119" s="7"/>
-      <c r="D119" s="7"/>
+      <c r="B119" s="8"/>
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B120" s="7"/>
-      <c r="C120" s="7"/>
-      <c r="D120" s="7"/>
+      <c r="B120" s="8"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B121" s="7"/>
-      <c r="C121" s="7"/>
-      <c r="D121" s="7"/>
+      <c r="B121" s="8"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B122" s="7"/>
-      <c r="C122" s="7"/>
-      <c r="D122" s="7"/>
+      <c r="B122" s="8"/>
+      <c r="C122" s="8"/>
+      <c r="D122" s="8"/>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B123" s="7"/>
-      <c r="C123" s="7"/>
-      <c r="D123" s="7"/>
+      <c r="B123" s="8"/>
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B124" s="7"/>
-      <c r="C124" s="7"/>
-      <c r="D124" s="7"/>
+      <c r="B124" s="8"/>
+      <c r="C124" s="8"/>
+      <c r="D124" s="8"/>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B125" s="7"/>
-      <c r="C125" s="7"/>
-      <c r="D125" s="7"/>
+      <c r="B125" s="8"/>
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B126" s="7"/>
-      <c r="C126" s="7"/>
-      <c r="D126" s="7"/>
+      <c r="B126" s="8"/>
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B127" s="7"/>
-      <c r="C127" s="7"/>
-      <c r="D127" s="7"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B128" s="7"/>
-      <c r="C128" s="7"/>
-      <c r="D128" s="7"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B129" s="7"/>
-      <c r="C129" s="7"/>
-      <c r="D129" s="7"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B130" s="7"/>
-      <c r="C130" s="7"/>
-      <c r="D130" s="7"/>
+      <c r="B130" s="8"/>
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B131" s="7"/>
-      <c r="C131" s="7"/>
-      <c r="D131" s="7"/>
+      <c r="B131" s="8"/>
+      <c r="C131" s="8"/>
+      <c r="D131" s="8"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B132" s="7"/>
-      <c r="C132" s="7"/>
-      <c r="D132" s="7"/>
+      <c r="B132" s="8"/>
+      <c r="C132" s="8"/>
+      <c r="D132" s="8"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B133" s="7"/>
-      <c r="C133" s="7"/>
-      <c r="D133" s="7"/>
+      <c r="B133" s="8"/>
+      <c r="C133" s="8"/>
+      <c r="D133" s="8"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B134" s="7"/>
-      <c r="C134" s="7"/>
-      <c r="D134" s="7"/>
+      <c r="B134" s="8"/>
+      <c r="C134" s="8"/>
+      <c r="D134" s="8"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B135" s="7"/>
-      <c r="C135" s="7"/>
-      <c r="D135" s="7"/>
+      <c r="B135" s="8"/>
+      <c r="C135" s="8"/>
+      <c r="D135" s="8"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B136" s="7"/>
-      <c r="C136" s="7"/>
-      <c r="D136" s="7"/>
+      <c r="B136" s="8"/>
+      <c r="C136" s="8"/>
+      <c r="D136" s="8"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B137" s="7"/>
-      <c r="C137" s="7"/>
-      <c r="D137" s="7"/>
+      <c r="B137" s="8"/>
+      <c r="C137" s="8"/>
+      <c r="D137" s="8"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B138" s="7"/>
-      <c r="C138" s="7"/>
-      <c r="D138" s="7"/>
+      <c r="B138" s="8"/>
+      <c r="C138" s="8"/>
+      <c r="D138" s="8"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B139" s="7"/>
-      <c r="C139" s="7"/>
-      <c r="D139" s="7"/>
+      <c r="B139" s="8"/>
+      <c r="C139" s="8"/>
+      <c r="D139" s="8"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B140" s="7"/>
-      <c r="C140" s="7"/>
-      <c r="D140" s="7"/>
+      <c r="B140" s="8"/>
+      <c r="C140" s="8"/>
+      <c r="D140" s="8"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B141" s="7"/>
-      <c r="C141" s="7"/>
-      <c r="D141" s="7"/>
+      <c r="B141" s="8"/>
+      <c r="C141" s="8"/>
+      <c r="D141" s="8"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A144" s="2">
@@ -1504,11 +1552,11 @@
       </c>
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B145" s="5" t="s">
+      <c r="B145" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C145" s="4"/>
-      <c r="D145" s="4"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
       <c r="E145">
         <v>1</v>
       </c>
@@ -1517,99 +1565,99 @@
       </c>
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B146" s="4"/>
-      <c r="C146" s="4"/>
-      <c r="D146" s="4"/>
+      <c r="B146" s="5"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B147" s="4"/>
-      <c r="C147" s="4"/>
-      <c r="D147" s="4"/>
+      <c r="B147" s="5"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B148" s="4"/>
-      <c r="C148" s="4"/>
-      <c r="D148" s="4"/>
+      <c r="B148" s="5"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B149" s="4"/>
-      <c r="C149" s="4"/>
-      <c r="D149" s="4"/>
+      <c r="B149" s="5"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B150" s="4"/>
-      <c r="C150" s="4"/>
-      <c r="D150" s="4"/>
+      <c r="B150" s="5"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B151" s="4"/>
-      <c r="C151" s="4"/>
-      <c r="D151" s="4"/>
+      <c r="B151" s="5"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B152" s="4"/>
-      <c r="C152" s="4"/>
-      <c r="D152" s="4"/>
+      <c r="B152" s="5"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B153" s="4"/>
-      <c r="C153" s="4"/>
-      <c r="D153" s="4"/>
+      <c r="B153" s="5"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B154" s="4"/>
-      <c r="C154" s="4"/>
-      <c r="D154" s="4"/>
+      <c r="B154" s="5"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B155" s="4"/>
-      <c r="C155" s="4"/>
-      <c r="D155" s="4"/>
+      <c r="B155" s="5"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B156" s="4"/>
-      <c r="C156" s="4"/>
-      <c r="D156" s="4"/>
+      <c r="B156" s="5"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B157" s="4"/>
-      <c r="C157" s="4"/>
-      <c r="D157" s="4"/>
+      <c r="B157" s="5"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
     </row>
     <row r="158" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B158" s="4"/>
-      <c r="C158" s="4"/>
-      <c r="D158" s="4"/>
+      <c r="B158" s="5"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
     </row>
     <row r="159" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B159" s="4"/>
-      <c r="C159" s="4"/>
-      <c r="D159" s="4"/>
+      <c r="B159" s="5"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
     </row>
     <row r="160" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B160" s="4"/>
-      <c r="C160" s="4"/>
-      <c r="D160" s="4"/>
+      <c r="B160" s="5"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B161" s="4"/>
-      <c r="C161" s="4"/>
-      <c r="D161" s="4"/>
+      <c r="B161" s="5"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B162" s="4"/>
-      <c r="C162" s="4"/>
-      <c r="D162" s="4"/>
+      <c r="B162" s="5"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
     </row>
     <row r="163" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B163" s="4"/>
-      <c r="C163" s="4"/>
-      <c r="D163" s="4"/>
+      <c r="B163" s="5"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B164" s="4"/>
-      <c r="C164" s="4"/>
-      <c r="D164" s="4"/>
+      <c r="B164" s="5"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
       <c r="E164">
         <v>2</v>
       </c>
@@ -1618,19 +1666,19 @@
       </c>
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B165" s="4"/>
-      <c r="C165" s="4"/>
-      <c r="D165" s="4"/>
+      <c r="B165" s="5"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
     </row>
     <row r="166" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B166" s="4"/>
-      <c r="C166" s="4"/>
-      <c r="D166" s="4"/>
+      <c r="B166" s="5"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B167" s="4"/>
-      <c r="C167" s="4"/>
-      <c r="D167" s="4"/>
+      <c r="B167" s="5"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5"/>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A201" s="2">
@@ -1647,11 +1695,11 @@
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B202" s="4" t="s">
+      <c r="B202" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C202" s="4"/>
-      <c r="D202" s="4"/>
+      <c r="C202" s="5"/>
+      <c r="D202" s="5"/>
       <c r="E202">
         <v>1</v>
       </c>
@@ -1660,9 +1708,9 @@
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B203" s="4"/>
-      <c r="C203" s="4"/>
-      <c r="D203" s="4"/>
+      <c r="B203" s="5"/>
+      <c r="C203" s="5"/>
+      <c r="D203" s="5"/>
       <c r="E203">
         <v>2</v>
       </c>
@@ -1671,9 +1719,9 @@
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B204" s="4"/>
-      <c r="C204" s="4"/>
-      <c r="D204" s="4"/>
+      <c r="B204" s="5"/>
+      <c r="C204" s="5"/>
+      <c r="D204" s="5"/>
       <c r="E204">
         <v>3</v>
       </c>
@@ -1696,21 +1744,21 @@
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B208" s="5" t="s">
+      <c r="B208" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C208" s="4"/>
-      <c r="D208" s="4"/>
+      <c r="C208" s="5"/>
+      <c r="D208" s="5"/>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B209" s="4"/>
-      <c r="C209" s="4"/>
-      <c r="D209" s="4"/>
+      <c r="B209" s="5"/>
+      <c r="C209" s="5"/>
+      <c r="D209" s="5"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B210" s="4"/>
-      <c r="C210" s="4"/>
-      <c r="D210" s="4"/>
+      <c r="B210" s="5"/>
+      <c r="C210" s="5"/>
+      <c r="D210" s="5"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A212" s="2">
@@ -1727,21 +1775,21 @@
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B213" s="6" t="s">
+      <c r="B213" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C213" s="6"/>
-      <c r="D213" s="6"/>
+      <c r="C213" s="7"/>
+      <c r="D213" s="7"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B214" s="6"/>
-      <c r="C214" s="6"/>
-      <c r="D214" s="6"/>
+      <c r="B214" s="7"/>
+      <c r="C214" s="7"/>
+      <c r="D214" s="7"/>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B215" s="6"/>
-      <c r="C215" s="6"/>
-      <c r="D215" s="6"/>
+      <c r="B215" s="7"/>
+      <c r="C215" s="7"/>
+      <c r="D215" s="7"/>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A218" s="2">
@@ -1758,21 +1806,21 @@
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B219" s="6" t="s">
+      <c r="B219" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C219" s="6"/>
-      <c r="D219" s="6"/>
+      <c r="C219" s="7"/>
+      <c r="D219" s="7"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B220" s="6"/>
-      <c r="C220" s="6"/>
-      <c r="D220" s="6"/>
+      <c r="B220" s="7"/>
+      <c r="C220" s="7"/>
+      <c r="D220" s="7"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B221" s="6"/>
-      <c r="C221" s="6"/>
-      <c r="D221" s="6"/>
+      <c r="B221" s="7"/>
+      <c r="C221" s="7"/>
+      <c r="D221" s="7"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A223" s="2">
@@ -2002,8 +2050,96 @@
       <c r="F246" t="s">
         <v>58</v>
       </c>
-      <c r="H246" s="8"/>
-      <c r="I246" s="8"/>
+      <c r="H246" s="4"/>
+      <c r="I246" s="4"/>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H247" s="4"/>
+      <c r="I247" s="4"/>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A248" s="2">
+        <v>18</v>
+      </c>
+      <c r="B248" t="s">
+        <v>60</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D248" s="1">
+        <v>42676</v>
+      </c>
+      <c r="E248">
+        <v>1</v>
+      </c>
+      <c r="F248" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E249">
+        <v>2</v>
+      </c>
+      <c r="F249" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A251" s="2">
+        <v>19</v>
+      </c>
+      <c r="B251" t="s">
+        <v>64</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D251" s="1">
+        <v>42676</v>
+      </c>
+      <c r="E251">
+        <v>1</v>
+      </c>
+      <c r="F251" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E252">
+        <v>2</v>
+      </c>
+      <c r="F252" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A254" s="2">
+        <v>20</v>
+      </c>
+      <c r="B254" t="s">
+        <v>68</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D254" s="1">
+        <v>42676</v>
+      </c>
+      <c r="E254">
+        <v>1</v>
+      </c>
+      <c r="F254" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E255">
+        <v>2</v>
+      </c>
+      <c r="F255" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/黑名单.xlsx
+++ b/黑名单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="330" windowWidth="27795" windowHeight="12990" tabRatio="505"/>
+    <workbookView xWindow="480" yWindow="390" windowWidth="27795" windowHeight="12930" tabRatio="505"/>
   </bookViews>
   <sheets>
     <sheet name="黑名单" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>大名城</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -318,6 +318,96 @@
   </si>
   <si>
     <t>11月2日当天大宗交易120万股左右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长春燃气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夕阳行业，设备初装趋于饱和，主要靠燃气销售，虽稳定，但没发展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有两只小基金为机构，可见没什么人看好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近期明显资金出货</t>
+  </si>
+  <si>
+    <t>港口业务，最近行业低迷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000582</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北部湾港</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16年6月30 和12月24有大量解禁盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月1日刚大宗交易了400万股，套现6000多万，大宗交易价格15.59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总解禁股数为4028万，通过最近的大宗交易，已卖出近2300万，即使在场内交易一部分，应该还有30% 左右，即1000多万股没有卖出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08月11日解禁了占流通股本22.83%的配售股份，然后成交量持续增大，显然是有机构在出货，而现在距离两次明显成交放大点还太近</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄山旅游</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600054</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网宿科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亮丽3季报，伴随天量成交和股价下跌，没兴趣分析它了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17年3月 和 5月有高比例解禁股，成本在4.45 左右（9.41/2 - 0.1- 0.15）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前几次大成交量，判断为出货。从现在至上次出货，无论从交易日还是跌幅上都还不够</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有色板块，行业低迷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驰宏锌锗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华录百纳</t>
+  </si>
+  <si>
+    <t>300291</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16年11月7日，2000万股解禁，且全是个人持股，减持是一定的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -989,10 +1079,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I255"/>
+  <dimension ref="A1:I274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="F255" sqref="F255"/>
+    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="F274" sqref="F274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2139,6 +2229,189 @@
       </c>
       <c r="F255" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A257" s="2">
+        <v>21</v>
+      </c>
+      <c r="B257" t="s">
+        <v>72</v>
+      </c>
+      <c r="C257">
+        <v>600333</v>
+      </c>
+      <c r="D257" s="1">
+        <v>42677</v>
+      </c>
+      <c r="E257">
+        <v>1</v>
+      </c>
+      <c r="F257" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E258">
+        <v>2</v>
+      </c>
+      <c r="F258" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A260" s="2">
+        <v>22</v>
+      </c>
+      <c r="B260" t="s">
+        <v>78</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D260" s="1">
+        <v>42677</v>
+      </c>
+      <c r="E260" s="2">
+        <v>1</v>
+      </c>
+      <c r="F260" t="s">
+        <v>75</v>
+      </c>
+      <c r="H260" s="2"/>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E261" s="2">
+        <v>2</v>
+      </c>
+      <c r="F261" t="s">
+        <v>76</v>
+      </c>
+      <c r="H261" s="2"/>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E262" s="2">
+        <v>3</v>
+      </c>
+      <c r="F262" t="s">
+        <v>79</v>
+      </c>
+      <c r="H262" s="2"/>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E263" s="2"/>
+      <c r="H263" s="2"/>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A264" s="2">
+        <v>23</v>
+      </c>
+      <c r="B264" t="s">
+        <v>83</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D264" s="1">
+        <v>42677</v>
+      </c>
+      <c r="E264" s="2">
+        <v>1</v>
+      </c>
+      <c r="F264" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E265" s="2">
+        <v>2</v>
+      </c>
+      <c r="F265" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E266" s="2">
+        <v>3</v>
+      </c>
+      <c r="F266" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A268" s="2">
+        <v>24</v>
+      </c>
+      <c r="B268" t="s">
+        <v>85</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D268" s="1">
+        <v>42677</v>
+      </c>
+      <c r="E268" s="2">
+        <v>1</v>
+      </c>
+      <c r="F268" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A270" s="2">
+        <v>25</v>
+      </c>
+      <c r="B270" t="s">
+        <v>91</v>
+      </c>
+      <c r="C270" s="3">
+        <v>600497</v>
+      </c>
+      <c r="D270" s="1">
+        <v>42677</v>
+      </c>
+      <c r="E270" s="2">
+        <v>1</v>
+      </c>
+      <c r="F270" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E271" s="2">
+        <v>2</v>
+      </c>
+      <c r="F271" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E272" s="2">
+        <v>3</v>
+      </c>
+      <c r="F272" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A274" s="2">
+        <v>26</v>
+      </c>
+      <c r="B274" t="s">
+        <v>92</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D274" s="1">
+        <v>42677</v>
+      </c>
+      <c r="E274" s="2">
+        <v>1</v>
+      </c>
+      <c r="F274" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/黑名单.xlsx
+++ b/黑名单.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="390" windowWidth="27795" windowHeight="12930" tabRatio="505"/>
+    <workbookView xWindow="480" yWindow="390" windowWidth="27795" windowHeight="12930" tabRatio="505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="黑名单" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>大名城</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -410,12 +411,93 @@
     <t>16年11月7日，2000万股解禁，且全是个人持股，减持是一定的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劣势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广汇汽车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600297</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 16年06月16 和 06月29 共解禁13亿股，现在一天成交量差不多在3000万，还有不少日子要消化
+2. 前期高点有巨额成交量，判断为解禁股抛售，暂时不考虑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西藏天路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600326</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.今天有1.1亿股的解禁盘，然后今天有巨额抛售
+2.平均日成交也就在2000万左右，还得消化一段时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国电南瑞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600406</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.16年12月30有2.2亿股的解禁盘，每天成交也就2000万股的样子
+2. 在10月30日已经有大成交量，军心涣散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.曾用名：工大高新-&gt;S工大新-&gt;工大高新-&gt;*ST工新-&gt;工大高新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*ST工新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600701</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝信软件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600845</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 16年10月21 和 17年03月07 ，各有2400万和2500万股解禁
+2. 每天成交在200万股左右
+3.前期每次高点都判断为出货，暂不考虑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,21 +521,51 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -462,7 +574,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -489,6 +601,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1081,7 +1217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
+    <sheetView topLeftCell="A256" workbookViewId="0">
       <selection activeCell="F274" sqref="F274"/>
     </sheetView>
   </sheetViews>
@@ -2430,4 +2566,110 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="12"/>
+    <col min="2" max="2" width="11.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72.75" style="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="14">
+        <v>42678</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="14">
+        <v>42678</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="14">
+        <v>42678</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="14">
+        <v>42678</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="14">
+        <v>42678</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/黑名单.xlsx
+++ b/黑名单.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t>大名城</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -490,6 +490,72 @@
     <t>1. 16年10月21 和 17年03月07 ，各有2400万和2500万股解禁
 2. 每天成交在200万股左右
 3.前期每次高点都判断为出货，暂不考虑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪潮信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000977</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 16年9月21日，有机构专用席位的大宗交易，成交额几百万，但是股价由此走入跌势
+2. 最近几次大的成交量，均对应阶段高点
+3. 17年01月29 ，有3500万解禁盘，每天交易量在1500万股的样子
+4.汇金并有持有
+5.15年7次，16年8次大宗交易记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安妮股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002235</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 行业属于造纸印刷，夕阳行业
+2. 最近几次大的成交量后市均走弱，判断为出货
+3.PE = 452， PB=4.73</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>齐星铁塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002359</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 15年7月被爆炒过，现在股价还在爆炒后的高位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普邦园林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002663</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 15年12月7日和16年11月2日有2.4亿解禁，每天成交在100多万的样子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运达科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300440</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 估计曾经被爆炒过，现在仍处于历史高位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -590,18 +656,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -625,6 +679,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1244,86 +1310,86 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
@@ -1340,106 +1406,106 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
@@ -1456,116 +1522,116 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" s="2">
@@ -1582,186 +1648,186 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B106" s="8" t="s">
+      <c r="B106" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C106" s="8"/>
-      <c r="D106" s="8"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="16"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B107" s="8"/>
-      <c r="C107" s="8"/>
-      <c r="D107" s="8"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="16"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B108" s="8"/>
-      <c r="C108" s="8"/>
-      <c r="D108" s="8"/>
+      <c r="B108" s="16"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="16"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B109" s="8"/>
-      <c r="C109" s="8"/>
-      <c r="D109" s="8"/>
+      <c r="B109" s="16"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="16"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B110" s="8"/>
-      <c r="C110" s="8"/>
-      <c r="D110" s="8"/>
+      <c r="B110" s="16"/>
+      <c r="C110" s="16"/>
+      <c r="D110" s="16"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B111" s="8"/>
-      <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
+      <c r="B111" s="16"/>
+      <c r="C111" s="16"/>
+      <c r="D111" s="16"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B112" s="8"/>
-      <c r="C112" s="8"/>
-      <c r="D112" s="8"/>
+      <c r="B112" s="16"/>
+      <c r="C112" s="16"/>
+      <c r="D112" s="16"/>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B113" s="8"/>
-      <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
+      <c r="B113" s="16"/>
+      <c r="C113" s="16"/>
+      <c r="D113" s="16"/>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B114" s="8"/>
-      <c r="C114" s="8"/>
-      <c r="D114" s="8"/>
+      <c r="B114" s="16"/>
+      <c r="C114" s="16"/>
+      <c r="D114" s="16"/>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B115" s="8"/>
-      <c r="C115" s="8"/>
-      <c r="D115" s="8"/>
+      <c r="B115" s="16"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="16"/>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B116" s="8"/>
-      <c r="C116" s="8"/>
-      <c r="D116" s="8"/>
+      <c r="B116" s="16"/>
+      <c r="C116" s="16"/>
+      <c r="D116" s="16"/>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B117" s="8"/>
-      <c r="C117" s="8"/>
-      <c r="D117" s="8"/>
+      <c r="B117" s="16"/>
+      <c r="C117" s="16"/>
+      <c r="D117" s="16"/>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B118" s="8"/>
-      <c r="C118" s="8"/>
-      <c r="D118" s="8"/>
+      <c r="B118" s="16"/>
+      <c r="C118" s="16"/>
+      <c r="D118" s="16"/>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B119" s="8"/>
-      <c r="C119" s="8"/>
-      <c r="D119" s="8"/>
+      <c r="B119" s="16"/>
+      <c r="C119" s="16"/>
+      <c r="D119" s="16"/>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B120" s="8"/>
-      <c r="C120" s="8"/>
-      <c r="D120" s="8"/>
+      <c r="B120" s="16"/>
+      <c r="C120" s="16"/>
+      <c r="D120" s="16"/>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B121" s="8"/>
-      <c r="C121" s="8"/>
-      <c r="D121" s="8"/>
+      <c r="B121" s="16"/>
+      <c r="C121" s="16"/>
+      <c r="D121" s="16"/>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B122" s="8"/>
-      <c r="C122" s="8"/>
-      <c r="D122" s="8"/>
+      <c r="B122" s="16"/>
+      <c r="C122" s="16"/>
+      <c r="D122" s="16"/>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B123" s="8"/>
-      <c r="C123" s="8"/>
-      <c r="D123" s="8"/>
+      <c r="B123" s="16"/>
+      <c r="C123" s="16"/>
+      <c r="D123" s="16"/>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B124" s="8"/>
-      <c r="C124" s="8"/>
-      <c r="D124" s="8"/>
+      <c r="B124" s="16"/>
+      <c r="C124" s="16"/>
+      <c r="D124" s="16"/>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B125" s="8"/>
-      <c r="C125" s="8"/>
-      <c r="D125" s="8"/>
+      <c r="B125" s="16"/>
+      <c r="C125" s="16"/>
+      <c r="D125" s="16"/>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B126" s="8"/>
-      <c r="C126" s="8"/>
-      <c r="D126" s="8"/>
+      <c r="B126" s="16"/>
+      <c r="C126" s="16"/>
+      <c r="D126" s="16"/>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B127" s="8"/>
-      <c r="C127" s="8"/>
-      <c r="D127" s="8"/>
+      <c r="B127" s="16"/>
+      <c r="C127" s="16"/>
+      <c r="D127" s="16"/>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B128" s="8"/>
-      <c r="C128" s="8"/>
-      <c r="D128" s="8"/>
+      <c r="B128" s="16"/>
+      <c r="C128" s="16"/>
+      <c r="D128" s="16"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B129" s="8"/>
-      <c r="C129" s="8"/>
-      <c r="D129" s="8"/>
+      <c r="B129" s="16"/>
+      <c r="C129" s="16"/>
+      <c r="D129" s="16"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B130" s="8"/>
-      <c r="C130" s="8"/>
-      <c r="D130" s="8"/>
+      <c r="B130" s="16"/>
+      <c r="C130" s="16"/>
+      <c r="D130" s="16"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B131" s="8"/>
-      <c r="C131" s="8"/>
-      <c r="D131" s="8"/>
+      <c r="B131" s="16"/>
+      <c r="C131" s="16"/>
+      <c r="D131" s="16"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B132" s="8"/>
-      <c r="C132" s="8"/>
-      <c r="D132" s="8"/>
+      <c r="B132" s="16"/>
+      <c r="C132" s="16"/>
+      <c r="D132" s="16"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B133" s="8"/>
-      <c r="C133" s="8"/>
-      <c r="D133" s="8"/>
+      <c r="B133" s="16"/>
+      <c r="C133" s="16"/>
+      <c r="D133" s="16"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B134" s="8"/>
-      <c r="C134" s="8"/>
-      <c r="D134" s="8"/>
+      <c r="B134" s="16"/>
+      <c r="C134" s="16"/>
+      <c r="D134" s="16"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B135" s="8"/>
-      <c r="C135" s="8"/>
-      <c r="D135" s="8"/>
+      <c r="B135" s="16"/>
+      <c r="C135" s="16"/>
+      <c r="D135" s="16"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B136" s="8"/>
-      <c r="C136" s="8"/>
-      <c r="D136" s="8"/>
+      <c r="B136" s="16"/>
+      <c r="C136" s="16"/>
+      <c r="D136" s="16"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B137" s="8"/>
-      <c r="C137" s="8"/>
-      <c r="D137" s="8"/>
+      <c r="B137" s="16"/>
+      <c r="C137" s="16"/>
+      <c r="D137" s="16"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B138" s="8"/>
-      <c r="C138" s="8"/>
-      <c r="D138" s="8"/>
+      <c r="B138" s="16"/>
+      <c r="C138" s="16"/>
+      <c r="D138" s="16"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B139" s="8"/>
-      <c r="C139" s="8"/>
-      <c r="D139" s="8"/>
+      <c r="B139" s="16"/>
+      <c r="C139" s="16"/>
+      <c r="D139" s="16"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B140" s="8"/>
-      <c r="C140" s="8"/>
-      <c r="D140" s="8"/>
+      <c r="B140" s="16"/>
+      <c r="C140" s="16"/>
+      <c r="D140" s="16"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B141" s="8"/>
-      <c r="C141" s="8"/>
-      <c r="D141" s="8"/>
+      <c r="B141" s="16"/>
+      <c r="C141" s="16"/>
+      <c r="D141" s="16"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A144" s="2">
@@ -1778,11 +1844,11 @@
       </c>
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B145" s="6" t="s">
+      <c r="B145" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C145" s="5"/>
-      <c r="D145" s="5"/>
+      <c r="C145" s="13"/>
+      <c r="D145" s="13"/>
       <c r="E145">
         <v>1</v>
       </c>
@@ -1791,99 +1857,99 @@
       </c>
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B146" s="5"/>
-      <c r="C146" s="5"/>
-      <c r="D146" s="5"/>
+      <c r="B146" s="13"/>
+      <c r="C146" s="13"/>
+      <c r="D146" s="13"/>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B147" s="5"/>
-      <c r="C147" s="5"/>
-      <c r="D147" s="5"/>
+      <c r="B147" s="13"/>
+      <c r="C147" s="13"/>
+      <c r="D147" s="13"/>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B148" s="5"/>
-      <c r="C148" s="5"/>
-      <c r="D148" s="5"/>
+      <c r="B148" s="13"/>
+      <c r="C148" s="13"/>
+      <c r="D148" s="13"/>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B149" s="5"/>
-      <c r="C149" s="5"/>
-      <c r="D149" s="5"/>
+      <c r="B149" s="13"/>
+      <c r="C149" s="13"/>
+      <c r="D149" s="13"/>
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B150" s="5"/>
-      <c r="C150" s="5"/>
-      <c r="D150" s="5"/>
+      <c r="B150" s="13"/>
+      <c r="C150" s="13"/>
+      <c r="D150" s="13"/>
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B151" s="5"/>
-      <c r="C151" s="5"/>
-      <c r="D151" s="5"/>
+      <c r="B151" s="13"/>
+      <c r="C151" s="13"/>
+      <c r="D151" s="13"/>
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B152" s="5"/>
-      <c r="C152" s="5"/>
-      <c r="D152" s="5"/>
+      <c r="B152" s="13"/>
+      <c r="C152" s="13"/>
+      <c r="D152" s="13"/>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B153" s="5"/>
-      <c r="C153" s="5"/>
-      <c r="D153" s="5"/>
+      <c r="B153" s="13"/>
+      <c r="C153" s="13"/>
+      <c r="D153" s="13"/>
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B154" s="5"/>
-      <c r="C154" s="5"/>
-      <c r="D154" s="5"/>
+      <c r="B154" s="13"/>
+      <c r="C154" s="13"/>
+      <c r="D154" s="13"/>
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B155" s="5"/>
-      <c r="C155" s="5"/>
-      <c r="D155" s="5"/>
+      <c r="B155" s="13"/>
+      <c r="C155" s="13"/>
+      <c r="D155" s="13"/>
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B156" s="5"/>
-      <c r="C156" s="5"/>
-      <c r="D156" s="5"/>
+      <c r="B156" s="13"/>
+      <c r="C156" s="13"/>
+      <c r="D156" s="13"/>
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B157" s="5"/>
-      <c r="C157" s="5"/>
-      <c r="D157" s="5"/>
+      <c r="B157" s="13"/>
+      <c r="C157" s="13"/>
+      <c r="D157" s="13"/>
     </row>
     <row r="158" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B158" s="5"/>
-      <c r="C158" s="5"/>
-      <c r="D158" s="5"/>
+      <c r="B158" s="13"/>
+      <c r="C158" s="13"/>
+      <c r="D158" s="13"/>
     </row>
     <row r="159" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B159" s="5"/>
-      <c r="C159" s="5"/>
-      <c r="D159" s="5"/>
+      <c r="B159" s="13"/>
+      <c r="C159" s="13"/>
+      <c r="D159" s="13"/>
     </row>
     <row r="160" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B160" s="5"/>
-      <c r="C160" s="5"/>
-      <c r="D160" s="5"/>
+      <c r="B160" s="13"/>
+      <c r="C160" s="13"/>
+      <c r="D160" s="13"/>
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B161" s="5"/>
-      <c r="C161" s="5"/>
-      <c r="D161" s="5"/>
+      <c r="B161" s="13"/>
+      <c r="C161" s="13"/>
+      <c r="D161" s="13"/>
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B162" s="5"/>
-      <c r="C162" s="5"/>
-      <c r="D162" s="5"/>
+      <c r="B162" s="13"/>
+      <c r="C162" s="13"/>
+      <c r="D162" s="13"/>
     </row>
     <row r="163" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B163" s="5"/>
-      <c r="C163" s="5"/>
-      <c r="D163" s="5"/>
+      <c r="B163" s="13"/>
+      <c r="C163" s="13"/>
+      <c r="D163" s="13"/>
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B164" s="5"/>
-      <c r="C164" s="5"/>
-      <c r="D164" s="5"/>
+      <c r="B164" s="13"/>
+      <c r="C164" s="13"/>
+      <c r="D164" s="13"/>
       <c r="E164">
         <v>2</v>
       </c>
@@ -1892,19 +1958,19 @@
       </c>
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B165" s="5"/>
-      <c r="C165" s="5"/>
-      <c r="D165" s="5"/>
+      <c r="B165" s="13"/>
+      <c r="C165" s="13"/>
+      <c r="D165" s="13"/>
     </row>
     <row r="166" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B166" s="5"/>
-      <c r="C166" s="5"/>
-      <c r="D166" s="5"/>
+      <c r="B166" s="13"/>
+      <c r="C166" s="13"/>
+      <c r="D166" s="13"/>
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B167" s="5"/>
-      <c r="C167" s="5"/>
-      <c r="D167" s="5"/>
+      <c r="B167" s="13"/>
+      <c r="C167" s="13"/>
+      <c r="D167" s="13"/>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A201" s="2">
@@ -1921,11 +1987,11 @@
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B202" s="5" t="s">
+      <c r="B202" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C202" s="5"/>
-      <c r="D202" s="5"/>
+      <c r="C202" s="13"/>
+      <c r="D202" s="13"/>
       <c r="E202">
         <v>1</v>
       </c>
@@ -1934,9 +2000,9 @@
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B203" s="5"/>
-      <c r="C203" s="5"/>
-      <c r="D203" s="5"/>
+      <c r="B203" s="13"/>
+      <c r="C203" s="13"/>
+      <c r="D203" s="13"/>
       <c r="E203">
         <v>2</v>
       </c>
@@ -1945,9 +2011,9 @@
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B204" s="5"/>
-      <c r="C204" s="5"/>
-      <c r="D204" s="5"/>
+      <c r="B204" s="13"/>
+      <c r="C204" s="13"/>
+      <c r="D204" s="13"/>
       <c r="E204">
         <v>3</v>
       </c>
@@ -1970,21 +2036,21 @@
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B208" s="6" t="s">
+      <c r="B208" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C208" s="5"/>
-      <c r="D208" s="5"/>
+      <c r="C208" s="13"/>
+      <c r="D208" s="13"/>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B209" s="5"/>
-      <c r="C209" s="5"/>
-      <c r="D209" s="5"/>
+      <c r="B209" s="13"/>
+      <c r="C209" s="13"/>
+      <c r="D209" s="13"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B210" s="5"/>
-      <c r="C210" s="5"/>
-      <c r="D210" s="5"/>
+      <c r="B210" s="13"/>
+      <c r="C210" s="13"/>
+      <c r="D210" s="13"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A212" s="2">
@@ -2001,21 +2067,21 @@
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B213" s="7" t="s">
+      <c r="B213" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C213" s="7"/>
-      <c r="D213" s="7"/>
+      <c r="C213" s="15"/>
+      <c r="D213" s="15"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B214" s="7"/>
-      <c r="C214" s="7"/>
-      <c r="D214" s="7"/>
+      <c r="B214" s="15"/>
+      <c r="C214" s="15"/>
+      <c r="D214" s="15"/>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B215" s="7"/>
-      <c r="C215" s="7"/>
-      <c r="D215" s="7"/>
+      <c r="B215" s="15"/>
+      <c r="C215" s="15"/>
+      <c r="D215" s="15"/>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A218" s="2">
@@ -2032,21 +2098,21 @@
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B219" s="7" t="s">
+      <c r="B219" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C219" s="7"/>
-      <c r="D219" s="7"/>
+      <c r="C219" s="15"/>
+      <c r="D219" s="15"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B220" s="7"/>
-      <c r="C220" s="7"/>
-      <c r="D220" s="7"/>
+      <c r="B220" s="15"/>
+      <c r="C220" s="15"/>
+      <c r="D220" s="15"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B221" s="7"/>
-      <c r="C221" s="7"/>
-      <c r="D221" s="7"/>
+      <c r="B221" s="15"/>
+      <c r="C221" s="15"/>
+      <c r="D221" s="15"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A223" s="2">
@@ -2570,102 +2636,172 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="12"/>
-    <col min="2" max="2" width="11.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="72.75" style="16" customWidth="1"/>
+    <col min="1" max="1" width="9" style="8"/>
+    <col min="2" max="2" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72.75" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="7" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="10">
         <v>42678</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="11" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="10">
         <v>42678</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="11" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="10">
         <v>42678</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="11" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="10">
         <v>42678</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="12" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="10">
         <v>42678</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="11" t="s">
         <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="10">
+        <v>42680</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="10">
+        <v>42314</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="10">
+        <v>42314</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="10">
+        <v>42314</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="10">
+        <v>42314</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/黑名单.xlsx
+++ b/黑名单.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
   <si>
     <t>大名城</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -556,6 +556,73 @@
   </si>
   <si>
     <t>1. 估计曾经被爆炒过，现在仍处于历史高位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春秋航空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫光学大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 前期被爆炒过
+2.近期大成交量时点均判断为出货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 前期被爆炒过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦川机床</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.10月13大成交量判断为出货
+2.秦川机床11月6日晚间披露股东减持计划。中国华融资产管理股份有限公司将自减持计划公告之日起十五个交易日后的六个月内通过证券交易所集中竞价交易减持不超过13867418 股，占公司总股本比例1.99%；
+3. 其一致行动人华融渝富红杉(天津)股权投资合伙企业(有限合伙)将通过大宗交易方式减持全部股份，不通过证券交易所集中竞价交易进行减持
+4.秦川机床股东计划减持3.94%公司股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新宁物流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.持股5%以上股东减持公司股份780万股
+2.新宁物流(300013)6日晚间公告称，公司收到持股5%以上股东天津红杉资本投资基金中心(有限合伙)通知，其于11月03日和11月04日以大宗交易方式合计减持本公司股份780万股，占公司总股本的2.62%。本次减持后天津红杉资本投资基金中心(有限合伙)持有公司股份1486.5052万股，占公司总股本的4.99%，不再是持股5%以上股东。
+3.4.99% 肯定是为了更方便的减持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捷成股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 8月19日有解禁，当天成交量显著放大，减持明显
+2.17年1月和3月，分别有7000万和4.3亿股解禁，日成交量在100多万的样子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>601021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000526</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000837</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300182</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2636,10 +2703,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2804,6 +2871,76 @@
         <v>128</v>
       </c>
     </row>
+    <row r="12" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A12" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="10">
+        <v>42315</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="10">
+        <v>42315</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="10">
+        <v>42315</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+      <c r="A15" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="10">
+        <v>42315</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A16" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="10">
+        <v>42315</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/黑名单.xlsx
+++ b/黑名单.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
   <si>
     <t>大名城</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -623,6 +623,43 @@
   </si>
   <si>
     <t>300182</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯撒文化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002425</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 17年5月和6月有两批解禁股，分别占流通股的11%和22%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华鹏飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300350</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 前期被爆炒过，现在仍在历史高位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达安基因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.股东人数在这一年内翻了一倍
+2.PE = 170， PB = 13.7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2703,10 +2740,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2941,6 +2978,48 @@
         <v>138</v>
       </c>
     </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" s="10">
+        <v>42316</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" s="10">
+        <v>42316</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A19" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="10">
+        <v>42316</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/黑名单.xlsx
+++ b/黑名单.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
   <si>
     <t>大名城</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -660,6 +660,42 @@
   <si>
     <t>1.股东人数在这一年内翻了一倍
 2.PE = 170， PB = 13.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*ST稀碳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000511</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 律师事务所成出具无法表述意见表达书，可见烂到包不住了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万达影院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002739</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.上市曾经过爆炒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华讯方舟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000687</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 前期经过爆炒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2740,10 +2776,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2860,7 +2896,7 @@
         <v>118</v>
       </c>
       <c r="C8" s="10">
-        <v>42314</v>
+        <v>42680</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>119</v>
@@ -2874,7 +2910,7 @@
         <v>121</v>
       </c>
       <c r="C9" s="10">
-        <v>42314</v>
+        <v>42680</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>122</v>
@@ -2888,7 +2924,7 @@
         <v>124</v>
       </c>
       <c r="C10" s="10">
-        <v>42314</v>
+        <v>42680</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>125</v>
@@ -2902,7 +2938,7 @@
         <v>127</v>
       </c>
       <c r="C11" s="10">
-        <v>42314</v>
+        <v>42680</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>128</v>
@@ -2916,7 +2952,7 @@
         <v>139</v>
       </c>
       <c r="C12" s="10">
-        <v>42315</v>
+        <v>42681</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>131</v>
@@ -2930,7 +2966,7 @@
         <v>140</v>
       </c>
       <c r="C13" s="10">
-        <v>42315</v>
+        <v>42681</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>132</v>
@@ -2944,7 +2980,7 @@
         <v>141</v>
       </c>
       <c r="C14" s="10">
-        <v>42315</v>
+        <v>42681</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>134</v>
@@ -2958,7 +2994,7 @@
         <v>142</v>
       </c>
       <c r="C15" s="10">
-        <v>42315</v>
+        <v>42681</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>136</v>
@@ -2972,7 +3008,7 @@
         <v>143</v>
       </c>
       <c r="C16" s="10">
-        <v>42315</v>
+        <v>42681</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>138</v>
@@ -2986,7 +3022,7 @@
         <v>145</v>
       </c>
       <c r="C17" s="10">
-        <v>42316</v>
+        <v>42682</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>146</v>
@@ -3000,7 +3036,7 @@
         <v>148</v>
       </c>
       <c r="C18" s="10">
-        <v>42316</v>
+        <v>42682</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>149</v>
@@ -3014,10 +3050,52 @@
         <v>151</v>
       </c>
       <c r="C19" s="10">
-        <v>42316</v>
+        <v>42682</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" s="10">
+        <v>42696</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" s="10">
+        <v>42696</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" s="10">
+        <v>42696</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/黑名单.xlsx
+++ b/黑名单.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
   <si>
     <t>大名城</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -671,10 +671,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 律师事务所成出具无法表述意见表达书，可见烂到包不住了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>万达影院</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -696,6 +692,60 @@
   </si>
   <si>
     <t>1. 前期经过爆炒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋城演艺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300144</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 从16年12月份开始，进入密集解禁期，共有7笔到期
+2.22日有大股东减持4%， 大量的大宗交易，今天又天量下跌，不妙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 律师事务所曾出具无法表述意见表达书，可见烂到包不住了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞力达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.10月25和11月04 天量成交，由此股价开始下行，暂时不关注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软控股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002073</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 软件只占主营的5%， 其他都是制造及安装业，是个伪软件股
+2.每股收益和营业利润为负</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太极股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002368</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.12月27有解禁，占流通股的10.69%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2776,10 +2826,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3067,35 +3117,91 @@
         <v>42696</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>156</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>157</v>
       </c>
       <c r="C21" s="10">
         <v>42696</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>159</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>160</v>
       </c>
       <c r="C22" s="10">
         <v>42696</v>
       </c>
       <c r="D22" s="12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A23" s="8" t="s">
         <v>161</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" s="10">
+        <v>42697</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C24" s="10">
+        <v>42698</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A25" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" s="10">
+        <v>42698</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C26" s="10">
+        <v>42698</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/黑名单.xlsx
+++ b/黑名单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="390" windowWidth="27795" windowHeight="12930" tabRatio="505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="450" windowWidth="27795" windowHeight="12870" tabRatio="505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="黑名单" sheetId="2" r:id="rId1"/>
@@ -663,10 +663,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>*ST稀碳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>000511</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -746,6 +742,10 @@
   </si>
   <si>
     <t>1.12月27有解禁，占流通股的10.69%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*ST稀碳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2829,7 +2829,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3108,100 +3108,100 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>153</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>154</v>
       </c>
       <c r="C20" s="10">
         <v>42696</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>155</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>156</v>
       </c>
       <c r="C21" s="10">
         <v>42696</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>158</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>159</v>
       </c>
       <c r="C22" s="10">
         <v>42696</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>161</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>162</v>
       </c>
       <c r="C23" s="10">
         <v>42697</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>165</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>166</v>
       </c>
       <c r="C24" s="10">
         <v>42698</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>168</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>169</v>
       </c>
       <c r="C25" s="10">
         <v>42698</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>171</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>172</v>
       </c>
       <c r="C26" s="10">
         <v>42698</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/黑名单.xlsx
+++ b/黑名单.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
   <si>
     <t>大名城</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -746,6 +746,18 @@
   </si>
   <si>
     <t>*ST稀碳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方集团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600811</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 17年5月25，8.5 亿股解禁，占总股本的30%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2826,10 +2838,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3204,6 +3216,20 @@
         <v>172</v>
       </c>
     </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" s="10">
+        <v>42726</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
